--- a/Testing Spreadsheet v1.0 ForgotPasswordPage, Jonnie Leathem.xlsx
+++ b/Testing Spreadsheet v1.0 ForgotPasswordPage, Jonnie Leathem.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <workbookProtection workbookPassword="A6C2" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="16560" windowHeight="6345" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="16560" windowHeight="6345" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="5" r:id="rId1"/>
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="97">
   <si>
     <t xml:space="preserve">Req </t>
   </si>
@@ -439,15 +439,6 @@
     <t>TCase_6</t>
   </si>
   <si>
-    <t>ForgotPassword_Tproc_1</t>
-  </si>
-  <si>
-    <t>ForgotPassword_Tproc_2</t>
-  </si>
-  <si>
-    <t>ForgotPassword_Tproc_3</t>
-  </si>
-  <si>
     <t>4.1.24</t>
   </si>
   <si>
@@ -472,12 +463,6 @@
     <t>Check if entering a valid email address sends the user's password to their email.</t>
   </si>
   <si>
-    <t>ForgotPassword_Tconn_1</t>
-  </si>
-  <si>
-    <t>JL</t>
-  </si>
-  <si>
     <t>The user will receive an email containing their password.</t>
   </si>
   <si>
@@ -496,9 +481,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>ForgotPassword_Tconn_3</t>
-  </si>
-  <si>
     <t>Go to page check for spelling or grammar mistakes.</t>
   </si>
   <si>
@@ -511,13 +493,40 @@
     <t>Email: InvalidEmail@qub.ac.uk</t>
   </si>
   <si>
-    <t>ForgotPassword_Tconn_2</t>
-  </si>
-  <si>
     <t>While on the forgot password page enter an invalid email address and click the send button.</t>
   </si>
   <si>
     <t>An appropriate validation message will appear.</t>
+  </si>
+  <si>
+    <t>To show that textual content in the email does not contain spelling or grammatical errors.</t>
+  </si>
+  <si>
+    <t>ForgotPassword_TConn_4</t>
+  </si>
+  <si>
+    <t>ForgotPassword_Tproc_4</t>
+  </si>
+  <si>
+    <t>ForgotPassword_TProc_3</t>
+  </si>
+  <si>
+    <t>ForgotPassword_TProc_2</t>
+  </si>
+  <si>
+    <t>ForgotPassword_TProc_1</t>
+  </si>
+  <si>
+    <t>Go to email check for spelling or grammar mistakes.</t>
+  </si>
+  <si>
+    <t>ForgotPassword_1</t>
+  </si>
+  <si>
+    <t>J Leathem</t>
+  </si>
+  <si>
+    <t>Email subject reads 'Bike IT - account details'. Should read 'Pizza IT - account details'.</t>
   </si>
 </sst>
 </file>
@@ -704,7 +713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -790,6 +799,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -930,7 +942,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1022,7 +1034,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1049,11 +1061,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1127205840"/>
-        <c:axId val="-1127194960"/>
+        <c:axId val="1138937808"/>
+        <c:axId val="1138934544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1127205840"/>
+        <c:axId val="1138937808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1063,7 +1075,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1127194960"/>
+        <c:crossAx val="1138934544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1071,7 +1083,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1127194960"/>
+        <c:axId val="1138934544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1082,7 +1094,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1127205840"/>
+        <c:crossAx val="1138937808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1490,8 +1502,8 @@
   </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1520,10 +1532,10 @@
         <v>58</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
@@ -1537,10 +1549,10 @@
         <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>27</v>
@@ -1552,10 +1564,10 @@
         <v>60</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>27</v>
@@ -1564,11 +1576,19 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="H5" s="6" t="s">
         <v>43</v>
       </c>
@@ -1656,7 +1676,7 @@
   <dimension ref="A1:Z161"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1732,16 +1752,16 @@
         <v>61</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>6</v>
@@ -1753,7 +1773,7 @@
         <v>24</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="4"/>
@@ -1771,16 +1791,16 @@
         <v>62</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>27</v>
@@ -1792,7 +1812,7 @@
         <v>24</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="4"/>
@@ -1810,16 +1830,16 @@
         <v>63</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>27</v>
@@ -1831,7 +1851,7 @@
         <v>24</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="4"/>
@@ -1851,17 +1871,39 @@
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
+      <c r="E5" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="13">
+        <v>42101</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="33">
+        <v>42101</v>
+      </c>
+      <c r="N5" s="33">
+        <v>42101</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="P5" s="10"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
@@ -1954,7 +1996,7 @@
       </c>
       <c r="U9" s="32">
         <f>COUNTIF(H3:H90,"*Failed*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
@@ -2209,7 +2251,7 @@
       </c>
       <c r="U26" s="32">
         <f>COUNTIF(L2:L50,"*Minor*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="5:21" x14ac:dyDescent="0.25">
@@ -4180,8 +4222,8 @@
   </sheetPr>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4222,19 +4264,19 @@
     </row>
     <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F2" s="1"/>
       <c r="H2" s="28" t="s">
@@ -4248,19 +4290,19 @@
     </row>
     <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="1"/>
@@ -4273,16 +4315,16 @@
     </row>
     <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -4294,11 +4336,19 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -4725,18 +4775,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4756,18 +4806,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Testing Spreadsheet v1.0 ForgotPasswordPage, Jonnie Leathem.xlsx
+++ b/Testing Spreadsheet v1.0 ForgotPasswordPage, Jonnie Leathem.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <workbookProtection workbookPassword="A6C2" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="16560" windowHeight="6345" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="16560" windowHeight="6345" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="5" r:id="rId1"/>
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="106">
   <si>
     <t xml:space="preserve">Req </t>
   </si>
@@ -475,9 +475,6 @@
     <t>On the forgot password page.</t>
   </si>
   <si>
-    <t>Check spelling on page.</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -487,15 +484,6 @@
     <t>No spelling or grammar mistakes.</t>
   </si>
   <si>
-    <t>Check if entering an invalid email address outputs an appropriate message.</t>
-  </si>
-  <si>
-    <t>Email: InvalidEmail@qub.ac.uk</t>
-  </si>
-  <si>
-    <t>While on the forgot password page enter an invalid email address and click the send button.</t>
-  </si>
-  <si>
     <t>An appropriate validation message will appear.</t>
   </si>
   <si>
@@ -505,9 +493,6 @@
     <t>ForgotPassword_TConn_4</t>
   </si>
   <si>
-    <t>ForgotPassword_Tproc_4</t>
-  </si>
-  <si>
     <t>ForgotPassword_TProc_3</t>
   </si>
   <si>
@@ -527,6 +512,48 @@
   </si>
   <si>
     <t>Email subject reads 'Bike IT - account details'. Should read 'Pizza IT - account details'.</t>
+  </si>
+  <si>
+    <t>Check if entering nothing for the email address outputs an appropriate message.</t>
+  </si>
+  <si>
+    <t>Email: (empty)</t>
+  </si>
+  <si>
+    <t>Check spelling and grammar on page.</t>
+  </si>
+  <si>
+    <t>Check spelling and grammar in email.</t>
+  </si>
+  <si>
+    <t>In the registered email address after forgot password request sent.</t>
+  </si>
+  <si>
+    <t>ForgotPassword_TProc_4</t>
+  </si>
+  <si>
+    <t>ForgotPassword_TProc_5</t>
+  </si>
+  <si>
+    <t>While on the forgot password page leave the email address empty and click the send button.</t>
+  </si>
+  <si>
+    <t>Check if entering an unrecognised email address outputs an appropriate message.</t>
+  </si>
+  <si>
+    <t>Email: InvalidEmailFormat</t>
+  </si>
+  <si>
+    <t>Email: UnrecognisedEmail@qub.ac.uk</t>
+  </si>
+  <si>
+    <t>ForgotPassword_TProc_6</t>
+  </si>
+  <si>
+    <t>While on the forgot password page enter an unrecognised email address and click the send button.</t>
+  </si>
+  <si>
+    <t>While on the forgot password page enter an email address of an invalid format and click the send button.</t>
   </si>
 </sst>
 </file>
@@ -917,7 +944,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Test Cases'!$T$8:$T$10</c:f>
+              <c:f>'Test Cases'!$T$10:$T$12</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -934,12 +961,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Test Cases'!$U$8:$U$10</c:f>
+              <c:f>'Test Cases'!$U$10:$U$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -1006,7 +1033,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Test Cases'!$T$26:$T$30</c:f>
+              <c:f>'Test Cases'!$T$28:$T$32</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1029,7 +1056,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Test Cases'!$U$26:$U$30</c:f>
+              <c:f>'Test Cases'!$U$28:$U$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1061,11 +1088,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1138937808"/>
-        <c:axId val="1138934544"/>
+        <c:axId val="1398994320"/>
+        <c:axId val="1399007376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1138937808"/>
+        <c:axId val="1398994320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1075,7 +1102,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1138934544"/>
+        <c:crossAx val="1399007376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1083,7 +1110,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1138934544"/>
+        <c:axId val="1399007376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1094,7 +1121,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1138937808"/>
+        <c:crossAx val="1398994320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1117,13 +1144,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>46567</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>16933</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>351367</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>169333</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1147,13 +1174,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>21166</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>16933</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>325966</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1502,7 +1529,7 @@
   </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1578,10 +1605,10 @@
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>70</v>
@@ -1673,10 +1700,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:Z161"/>
+  <dimension ref="A1:Z163"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1773,7 +1800,7 @@
         <v>24</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="4"/>
@@ -1791,13 +1818,13 @@
         <v>62</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>59</v>
@@ -1812,7 +1839,7 @@
         <v>24</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="4"/>
@@ -1825,99 +1852,108 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="57" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>27</v>
       </c>
       <c r="G4" s="13">
-        <v>42074</v>
+        <v>42107</v>
       </c>
       <c r="H4" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="J4" s="9"/>
+      <c r="I4" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" s="3"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
       <c r="O4" s="9"/>
       <c r="P4" s="10"/>
-      <c r="Z4" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="T4" s="28"/>
+    </row>
+    <row r="5" spans="1:26" ht="57" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="E5" s="11" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="13">
-        <v>42101</v>
+        <v>42107</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" s="33">
-        <v>42101</v>
-      </c>
-      <c r="N5" s="33">
-        <v>42101</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>96</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="9"/>
       <c r="P5" s="10"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="T5" s="28"/>
+    </row>
+    <row r="6" spans="1:26" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="14"/>
+      <c r="B6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="13">
+        <v>42074</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>90</v>
+      </c>
       <c r="J6" s="9"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -1925,84 +1961,105 @@
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="10"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z6" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="57" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
+      <c r="B7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="13">
+        <v>42101</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="33">
+        <v>42101</v>
+      </c>
+      <c r="N7" s="33">
+        <v>42101</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>91</v>
+      </c>
       <c r="P7" s="10"/>
-      <c r="T7" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="1"/>
+      <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="12"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="12"/>
       <c r="H8" s="27"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="9"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
       <c r="P8" s="10"/>
-      <c r="T8" t="s">
-        <v>53</v>
-      </c>
-      <c r="U8" s="32">
-        <f>COUNTIF(H2:H90,"*Passed*")</f>
-        <v>3</v>
-      </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="12"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="13"/>
       <c r="H9" s="27"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="9"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
       <c r="P9" s="10"/>
       <c r="T9" t="s">
-        <v>25</v>
-      </c>
-      <c r="U9" s="32">
-        <f>COUNTIF(H3:H90,"*Failed*")</f>
-        <v>1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E10" s="10"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="10"/>
+      <c r="G10" s="1"/>
       <c r="H10" s="27"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
@@ -2013,17 +2070,21 @@
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
       <c r="T10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U10" s="32">
-        <f>COUNTIF(H4:H90,"*Not*")</f>
-        <v>0</v>
+        <f>COUNTIF(H2:H92,"*Passed*")</f>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E11" s="10"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="10"/>
+      <c r="G11" s="1"/>
       <c r="H11" s="27"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -2033,6 +2094,13 @@
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
+      <c r="T11" t="s">
+        <v>25</v>
+      </c>
+      <c r="U11" s="32">
+        <f>COUNTIF(H3:H92,"*Failed*")</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E12" s="10"/>
@@ -2041,12 +2109,19 @@
       <c r="H12" s="27"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+      <c r="K12" s="4"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
+      <c r="T12" t="s">
+        <v>54</v>
+      </c>
+      <c r="U12" s="32">
+        <f>COUNTIF(H6:H92,"*Not*")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E13" s="10"/>
@@ -2055,7 +2130,7 @@
       <c r="H13" s="27"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
+      <c r="K13" s="4"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
@@ -2229,9 +2304,6 @@
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
       <c r="P25" s="10"/>
-      <c r="T25" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="26" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E26" s="10"/>
@@ -2246,13 +2318,6 @@
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
-      <c r="T26" t="s">
-        <v>34</v>
-      </c>
-      <c r="U26" s="32">
-        <f>COUNTIF(L2:L50,"*Minor*")</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="27" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E27" s="10"/>
@@ -2268,11 +2333,7 @@
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
       <c r="T27" t="s">
-        <v>57</v>
-      </c>
-      <c r="U27" s="32">
-        <f>COUNTIF(L2:L7,"*Moderate*")</f>
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="5:21" x14ac:dyDescent="0.25">
@@ -2289,11 +2350,11 @@
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
       <c r="T28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U28" s="32">
-        <f>COUNTIF(L2:L7,"*Major*")</f>
-        <v>0</v>
+        <f>COUNTIF(L2:L52,"*Minor*")</f>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="5:21" x14ac:dyDescent="0.25">
@@ -2310,10 +2371,10 @@
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
       <c r="T29" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="U29" s="32">
-        <f>COUNTIF(L2:L7,"*Critical*")</f>
+        <f>COUNTIF(L2:L9,"*Moderate*")</f>
         <v>0</v>
       </c>
     </row>
@@ -2331,10 +2392,10 @@
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
       <c r="T30" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="U30" s="32">
-        <f>COUNTIF(L2:L7,"*Cometic*")</f>
+        <f>COUNTIF(L2:L9,"*Major*")</f>
         <v>0</v>
       </c>
     </row>
@@ -2351,6 +2412,13 @@
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
       <c r="P31" s="10"/>
+      <c r="T31" t="s">
+        <v>36</v>
+      </c>
+      <c r="U31" s="32">
+        <f>COUNTIF(L2:L9,"*Critical*")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E32" s="10"/>
@@ -2365,6 +2433,13 @@
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
+      <c r="T32" t="s">
+        <v>38</v>
+      </c>
+      <c r="U32" s="32">
+        <f>COUNTIF(L2:L9,"*Cometic*")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E33" s="10"/>
@@ -4120,7 +4195,7 @@
       <c r="E158" s="10"/>
       <c r="F158" s="11"/>
       <c r="G158" s="10"/>
-      <c r="H158" s="10"/>
+      <c r="H158" s="27"/>
       <c r="I158" s="10"/>
       <c r="J158" s="10"/>
       <c r="K158" s="10"/>
@@ -4134,7 +4209,7 @@
       <c r="E159" s="10"/>
       <c r="F159" s="11"/>
       <c r="G159" s="10"/>
-      <c r="H159" s="10"/>
+      <c r="H159" s="27"/>
       <c r="I159" s="10"/>
       <c r="J159" s="10"/>
       <c r="K159" s="10"/>
@@ -4146,7 +4221,7 @@
     </row>
     <row r="160" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E160" s="10"/>
-      <c r="F160" s="10"/>
+      <c r="F160" s="11"/>
       <c r="G160" s="10"/>
       <c r="H160" s="10"/>
       <c r="I160" s="10"/>
@@ -4160,7 +4235,7 @@
     </row>
     <row r="161" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E161" s="10"/>
-      <c r="F161" s="10"/>
+      <c r="F161" s="11"/>
       <c r="G161" s="10"/>
       <c r="H161" s="10"/>
       <c r="I161" s="10"/>
@@ -4172,10 +4247,38 @@
       <c r="O161" s="10"/>
       <c r="P161" s="10"/>
     </row>
+    <row r="162" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E162" s="10"/>
+      <c r="F162" s="10"/>
+      <c r="G162" s="10"/>
+      <c r="H162" s="10"/>
+      <c r="I162" s="10"/>
+      <c r="J162" s="10"/>
+      <c r="K162" s="10"/>
+      <c r="L162" s="10"/>
+      <c r="M162" s="10"/>
+      <c r="N162" s="10"/>
+      <c r="O162" s="10"/>
+      <c r="P162" s="10"/>
+    </row>
+    <row r="163" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E163" s="10"/>
+      <c r="F163" s="10"/>
+      <c r="G163" s="10"/>
+      <c r="H163" s="10"/>
+      <c r="I163" s="10"/>
+      <c r="J163" s="10"/>
+      <c r="K163" s="10"/>
+      <c r="L163" s="10"/>
+      <c r="M163" s="10"/>
+      <c r="N163" s="10"/>
+      <c r="O163" s="10"/>
+      <c r="P163" s="10"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="H44:H159">
+  <conditionalFormatting sqref="H46:H161">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Passed ">
-      <formula>NOT(ISERROR(SEARCH("Passed ",H44)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed ",H46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4189,25 +4292,25 @@
           <x14:formula1>
             <xm:f>Settings!$A$4:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H43</xm:sqref>
+          <xm:sqref>H2:H45</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Settings!$B$4:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F159</xm:sqref>
+          <xm:sqref>F2:F161</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Settings!$F$4:$F$8</xm:f>
           </x14:formula1>
-          <xm:sqref>L2:L7</xm:sqref>
+          <xm:sqref>L2:L9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Settings!$D$4:$D$6</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K11</xm:sqref>
+          <xm:sqref>K2:K13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4220,10 +4323,10 @@
   <sheetPr>
     <tabColor rgb="FF99FF99"/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4264,7 +4367,7 @@
     </row>
     <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>61</v>
@@ -4290,16 +4393,16 @@
     </row>
     <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>77</v>
@@ -4313,21 +4416,23 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -4336,21 +4441,23 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -4359,11 +4466,19 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -4374,11 +4489,19 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -4568,6 +4691,36 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4775,18 +4928,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4806,18 +4959,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testing Spreadsheet v1.0 ForgotPasswordPage, Jonnie Leathem.xlsx
+++ b/Testing Spreadsheet v1.0 ForgotPasswordPage, Jonnie Leathem.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <workbookProtection workbookPassword="A6C2" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="16560" windowHeight="6345" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="16560" windowHeight="6345" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="5" r:id="rId1"/>
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="172">
   <si>
     <t xml:space="preserve">Req </t>
   </si>
@@ -554,6 +554,204 @@
   </si>
   <si>
     <t>While on the forgot password page enter an email address of an invalid format and click the send button.</t>
+  </si>
+  <si>
+    <t>ForgotPassword_Tconn_5</t>
+  </si>
+  <si>
+    <t>ForgotPassword_Tconn_4</t>
+  </si>
+  <si>
+    <t>ForgotPassword_Tconn_3</t>
+  </si>
+  <si>
+    <t>ForgotPassword_Tconn_2</t>
+  </si>
+  <si>
+    <t>ForgotPassword_Tconn_1</t>
+  </si>
+  <si>
+    <t>4.1.1</t>
+  </si>
+  <si>
+    <t>To show that the company logo is displayed in the header.</t>
+  </si>
+  <si>
+    <t>ForgotPassword_Tconn_6</t>
+  </si>
+  <si>
+    <t>4.1.2</t>
+  </si>
+  <si>
+    <t>ForgotPassword_Tconn_7</t>
+  </si>
+  <si>
+    <t>To show that the page has a title.</t>
+  </si>
+  <si>
+    <t>4.1.4</t>
+  </si>
+  <si>
+    <t>ForgotPassword_Tconn_8</t>
+  </si>
+  <si>
+    <t>4.1.5</t>
+  </si>
+  <si>
+    <t>To show that the Forgot Password page exists within the system.</t>
+  </si>
+  <si>
+    <t>ForgotPassword_Tconn_9</t>
+  </si>
+  <si>
+    <t>To show that a common navigation area is available on the page</t>
+  </si>
+  <si>
+    <t>4.1.7</t>
+  </si>
+  <si>
+    <t>ForgotPassword_Tconn_10</t>
+  </si>
+  <si>
+    <t>To show that the user can navigate directly to the Register and Login pages.</t>
+  </si>
+  <si>
+    <t>4.1.9</t>
+  </si>
+  <si>
+    <t>Tcase_7</t>
+  </si>
+  <si>
+    <t>On the forgot password page</t>
+  </si>
+  <si>
+    <t>Tcase_8</t>
+  </si>
+  <si>
+    <t>Tcase_9</t>
+  </si>
+  <si>
+    <t>To show that the copyright and site version information is displayed in the footer.</t>
+  </si>
+  <si>
+    <t>Check that the copyright and site version information is displayed in the footer.</t>
+  </si>
+  <si>
+    <t>Check if the company logo is displayed in the header.</t>
+  </si>
+  <si>
+    <t>Check that the page has a title.</t>
+  </si>
+  <si>
+    <t>TCase_7</t>
+  </si>
+  <si>
+    <t>TCase_8</t>
+  </si>
+  <si>
+    <t>TCase_9</t>
+  </si>
+  <si>
+    <t>ForgotPassword_TProc_7</t>
+  </si>
+  <si>
+    <t>ForgotPassword_TProc_8</t>
+  </si>
+  <si>
+    <t>ForgotPassword_TProc_9</t>
+  </si>
+  <si>
+    <t>Company logo in header.</t>
+  </si>
+  <si>
+    <t>Go to page check for company logo in header.</t>
+  </si>
+  <si>
+    <t>Go to page check for the copyright and site version information displayed in the footer.</t>
+  </si>
+  <si>
+    <t>Copyright and site version information displayed in the footer.</t>
+  </si>
+  <si>
+    <t>Go to page check for title.</t>
+  </si>
+  <si>
+    <t>Title named 'Forgot password'</t>
+  </si>
+  <si>
+    <t>Tcase_10</t>
+  </si>
+  <si>
+    <t>Tcase_11</t>
+  </si>
+  <si>
+    <t>Tcase_12</t>
+  </si>
+  <si>
+    <t>ForgotPassword_TProc_10</t>
+  </si>
+  <si>
+    <t>TCase_10</t>
+  </si>
+  <si>
+    <t>ForgotPassword_TProc_11</t>
+  </si>
+  <si>
+    <t>TCase_11</t>
+  </si>
+  <si>
+    <t>ForgotPassword_TProc_12</t>
+  </si>
+  <si>
+    <t>TCase_12</t>
+  </si>
+  <si>
+    <t>Check that the Forgot Password page exists within the system.</t>
+  </si>
+  <si>
+    <t>In the system.                  Navigate to Forgot Password page (through the Login page).</t>
+  </si>
+  <si>
+    <t>Check that the user can navigate directly to the Register page</t>
+  </si>
+  <si>
+    <t>Tcase_13</t>
+  </si>
+  <si>
+    <t>Check that the user can navigate directly to the Login page</t>
+  </si>
+  <si>
+    <t>ForgotPassword_TProc_13</t>
+  </si>
+  <si>
+    <t>TCase_13</t>
+  </si>
+  <si>
+    <t>Forgot Password page exists within the system.</t>
+  </si>
+  <si>
+    <t>Open website and navigate to Forgot Password page through the Login page.</t>
+  </si>
+  <si>
+    <t>Check that the page has a common navigation area.</t>
+  </si>
+  <si>
+    <t>Go to page check for navigation area.</t>
+  </si>
+  <si>
+    <t>Navigation area in header.</t>
+  </si>
+  <si>
+    <t>Go to page click on Register.</t>
+  </si>
+  <si>
+    <t>Go to page click on Login.</t>
+  </si>
+  <si>
+    <t>Registration page opens.</t>
+  </si>
+  <si>
+    <t>Login page opens.</t>
   </si>
 </sst>
 </file>
@@ -966,7 +1164,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -1088,11 +1286,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1398994320"/>
-        <c:axId val="1399007376"/>
+        <c:axId val="237190224"/>
+        <c:axId val="237191856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1398994320"/>
+        <c:axId val="237190224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1102,7 +1300,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1399007376"/>
+        <c:crossAx val="237191856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1110,7 +1308,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1399007376"/>
+        <c:axId val="237191856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1121,7 +1319,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1398994320"/>
+        <c:crossAx val="237190224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1530,7 +1728,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1556,7 +1754,7 @@
     </row>
     <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>68</v>
@@ -1573,7 +1771,7 @@
     </row>
     <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>69</v>
@@ -1588,7 +1786,7 @@
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>71</v>
@@ -1605,7 +1803,7 @@
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>83</v>
@@ -1620,50 +1818,98 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="H6" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="H7" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="I8" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -1702,8 +1948,8 @@
   </sheetPr>
   <dimension ref="A1:Z163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2013,16 +2259,34 @@
       </c>
       <c r="P7" s="10"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="14"/>
+    <row r="8" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="13">
+        <v>42108</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>90</v>
+      </c>
       <c r="J8" s="9"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -2031,16 +2295,34 @@
       <c r="O8" s="9"/>
       <c r="P8" s="10"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="14"/>
+    <row r="9" spans="1:26" ht="57" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="13">
+        <v>42108</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>90</v>
+      </c>
       <c r="J9" s="9"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -2052,16 +2334,34 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="10"/>
+    <row r="10" spans="1:26" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="13">
+        <v>42108</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>90</v>
+      </c>
       <c r="J10" s="10"/>
       <c r="K10" s="4"/>
       <c r="L10" s="10"/>
@@ -2074,19 +2374,37 @@
       </c>
       <c r="U10" s="32">
         <f>COUNTIF(H2:H92,"*Passed*")</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="10"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="13">
+        <v>42108</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>90</v>
+      </c>
       <c r="J11" s="10"/>
       <c r="K11" s="4"/>
       <c r="L11" s="10"/>
@@ -2102,12 +2420,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="10"/>
+    <row r="12" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="13">
+        <v>42108</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>90</v>
+      </c>
       <c r="J12" s="10"/>
       <c r="K12" s="4"/>
       <c r="L12" s="10"/>
@@ -2123,12 +2463,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="10"/>
+    <row r="13" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="13">
+        <v>42108</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>90</v>
+      </c>
       <c r="J13" s="10"/>
       <c r="K13" s="4"/>
       <c r="L13" s="10"/>
@@ -2137,12 +2499,34 @@
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="10"/>
+    <row r="14" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="13">
+        <v>42108</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>90</v>
+      </c>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
@@ -4325,8 +4709,8 @@
   </sheetPr>
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4512,11 +4896,19 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -4527,11 +4919,19 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -4542,11 +4942,19 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -4557,11 +4965,19 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+    <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -4572,11 +4988,19 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -4587,11 +5011,19 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -4602,11 +5034,19 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>

--- a/Testing Spreadsheet v1.0 ForgotPasswordPage, Jonnie Leathem.xlsx
+++ b/Testing Spreadsheet v1.0 ForgotPasswordPage, Jonnie Leathem.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <workbookProtection workbookPassword="A6C2" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="16560" windowHeight="6345" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="16560" windowHeight="6345" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="5" r:id="rId1"/>
@@ -1286,11 +1286,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="237190224"/>
-        <c:axId val="237191856"/>
+        <c:axId val="-274815216"/>
+        <c:axId val="-193792336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="237190224"/>
+        <c:axId val="-274815216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1300,7 +1300,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="237191856"/>
+        <c:crossAx val="-193792336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1308,7 +1308,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="237191856"/>
+        <c:axId val="-193792336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1319,7 +1319,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="237190224"/>
+        <c:crossAx val="-274815216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1728,7 +1728,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1894,7 +1894,7 @@
         <v>123</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1948,8 +1948,8 @@
   </sheetPr>
   <dimension ref="A1:Z163"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="C6" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2437,7 +2437,7 @@
         <v>121</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="G12" s="13">
         <v>42108</v>
@@ -5254,6 +5254,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C0A86D0A1DF85A4CBF24319CD50F658E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18023c554c1e7c0fe5f8bda126dbbbe1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -5367,33 +5382,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5408,9 +5400,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Testing Spreadsheet v1.0 ForgotPasswordPage, Jonnie Leathem.xlsx
+++ b/Testing Spreadsheet v1.0 ForgotPasswordPage, Jonnie Leathem.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <workbookProtection workbookPassword="A6C2" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="16560" windowHeight="6345" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="16560" windowHeight="6345" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="5" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="Test Procedures" sheetId="3" r:id="rId4"/>
     <sheet name="Settings" sheetId="6" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_Toc407532261" localSheetId="0">Reqs!$B$2</definedName>
   </definedNames>
@@ -200,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="246">
   <si>
     <t xml:space="preserve">Req </t>
   </si>
@@ -752,6 +755,228 @@
   </si>
   <si>
     <t>Login page opens.</t>
+  </si>
+  <si>
+    <t>3.2.2</t>
+  </si>
+  <si>
+    <t>ForgotPassword_Tconn_11</t>
+  </si>
+  <si>
+    <t>ForgotPassword_Tconn_12</t>
+  </si>
+  <si>
+    <t>ForgotPassword_Tconn_13</t>
+  </si>
+  <si>
+    <t>To show that the Forgot Password page displays and functions on the Amazon Kindle Fire 7 inch, iPad 4, iPhone 6, Google Nexus 10 and Galaxy S4.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To show that the Forgot Password page is optimised for Amazon Kindle Fire 7 inch, iPad 4, iPhone 6, Google Nexus 10 and Samsung Galaxy S4. </t>
+  </si>
+  <si>
+    <t>Check that the Forgot Password page displays and functions on the Amazon Kindle Fire 7 inch, iPad 4, iPhone 6, Google Nexus 10 and Galaxy S4.</t>
+  </si>
+  <si>
+    <t>Tcase_14</t>
+  </si>
+  <si>
+    <t>Tcase_15</t>
+  </si>
+  <si>
+    <t>Tcase_16</t>
+  </si>
+  <si>
+    <t>Tcase_17</t>
+  </si>
+  <si>
+    <t>Username: jleathem03@qub.ac.uk</t>
+  </si>
+  <si>
+    <t>On the forgot password page                                Registered user: jleathem03@qub.ac.uk</t>
+  </si>
+  <si>
+    <t>Check that the Forgot Password page displays and functions on Google Chrome Version 36, Internet Explorer 11, and Firefox V31.</t>
+  </si>
+  <si>
+    <t>ForgotPassword_TProc_14</t>
+  </si>
+  <si>
+    <t>TCase_14</t>
+  </si>
+  <si>
+    <t>ForgotPassword_TProc_15</t>
+  </si>
+  <si>
+    <t>TCase_15</t>
+  </si>
+  <si>
+    <t>ForgotPassword_TProc_16</t>
+  </si>
+  <si>
+    <t>TCase_16</t>
+  </si>
+  <si>
+    <t>The Contact page across browsers and devices should be consistent with respect to orientation and measurements.</t>
+  </si>
+  <si>
+    <t>To show that the Forgot Password page displays and functions on Google Chrome Version 36, Internet Explorer 11, Firefox V31.</t>
+  </si>
+  <si>
+    <t>The Forgot Password page should display and function.</t>
+  </si>
+  <si>
+    <t>Go to forgot password page for Firefox, Internet Explorer, Chrome, Amazon Kindle Fire 7 inch, iPad 3/4, iPhone 6, Google Nexus 10 and Samsung Galaxy S4 and check if layout across browsers and devices is consistet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go to forgot password page for Firefox, Internet Explorer, and Chrome and check if page displays and functions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go to forgot password page for  Amazon Kindle Fire 7 inch, iPad 3/4, iPhone 6, Google Nexus 10 and Samsung Galaxy S4  and check if page displays and functions. </t>
+  </si>
+  <si>
+    <t>To show that the website window can be resized or reshaped and that the contents of the page respond by scaling and shifting into place.</t>
+  </si>
+  <si>
+    <t>ForgotPassword_Tconn_14</t>
+  </si>
+  <si>
+    <t>Check that the website window can be resized or reshaped and that the contents of the page respond by scaling and shifting into place.</t>
+  </si>
+  <si>
+    <t>ForgotPassword_TProc_17</t>
+  </si>
+  <si>
+    <t>TCase_17</t>
+  </si>
+  <si>
+    <t>To show that the Forgot Password page display is consistent with other webpages on the website, with respect to title sizes, placement of image artefacts, navigation items and footers.</t>
+  </si>
+  <si>
+    <t>ForgotPassword_Tconn_15</t>
+  </si>
+  <si>
+    <t>Check that the webpage display is consistent with other webpages on the website in title sizes, placement of image artefacts, navigation items and footers.</t>
+  </si>
+  <si>
+    <t>Tcase_18</t>
+  </si>
+  <si>
+    <t>ForgotPassword_2</t>
+  </si>
+  <si>
+    <t>On Google Chrome and Firefox, the Pizza IT logo is in the same place for the Manage Account page, Login page, Schedule pae, Problem page, Forgot Password page and Order Receipt but not for Ordering Pizza and About.</t>
+  </si>
+  <si>
+    <t>On all pages                                Registered user: jleathem03@qub.ac.uk</t>
+  </si>
+  <si>
+    <t>Username: jleathem03@qub.ac.uk Password: validPassword</t>
+  </si>
+  <si>
+    <t>ForgotPassword_TProc_18</t>
+  </si>
+  <si>
+    <t>TCase_18</t>
+  </si>
+  <si>
+    <t>All pages should possess the same positioning for images and layout.</t>
+  </si>
+  <si>
+    <t>Compare and contrast all pages with the Forgot Password page</t>
+  </si>
+  <si>
+    <t>While on the Forgot Password page and the web browser is in windowed mode, click and hold the mouse over the right edge of the window and drag to the left to shrink the page. Check that images, boxes and test resize or move to accommodate change of window size without loss of details.</t>
+  </si>
+  <si>
+    <t>No contents of the Forgot Password page should vanish.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To show that page source code, image file names and information does not contain inflammatory or infringing content </t>
+  </si>
+  <si>
+    <t>ForgotPassword_Tconn_16</t>
+  </si>
+  <si>
+    <t>Check that page source code, image file names and information do not contain inflammatory or infringing content.</t>
+  </si>
+  <si>
+    <t>Tcase_19</t>
+  </si>
+  <si>
+    <t>The page source code should not display any inflammatory or derogatory comments.</t>
+  </si>
+  <si>
+    <t>ForgotPassword_TProc_19</t>
+  </si>
+  <si>
+    <t>TCase_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While on the Forgot Password page, right-click and select "View page source" for Chrome and emulators;  "View Page Source" for Firefox; and "View Souce" for Internet Explorer. Read through the code and examine image file names and sources and code to verify that no swear words or potentially inflammatory comments exist. </t>
+  </si>
+  <si>
+    <t>To show that images are stored on the server for the website natively and are not hotlinked to an unaffiliated website.</t>
+  </si>
+  <si>
+    <t>To show that images used are public domain or lawfully used.</t>
+  </si>
+  <si>
+    <t>ForgotPassword_Tconn_17</t>
+  </si>
+  <si>
+    <t>ForgotPassword_Tconn_18</t>
+  </si>
+  <si>
+    <t>Check that images are stored on the server for the website natively and are not hotlinked to an unaffiliated website.</t>
+  </si>
+  <si>
+    <t>Check that images used are public domain or lawfully used.</t>
+  </si>
+  <si>
+    <t>Tcase_20</t>
+  </si>
+  <si>
+    <t>Tcase_21</t>
+  </si>
+  <si>
+    <t>ForgotPassword_3</t>
+  </si>
+  <si>
+    <t>All images should be hosted on the website server: http://lamp.eeecs.qub.ac.uk:8080</t>
+  </si>
+  <si>
+    <t>No image should possess a watermark.</t>
+  </si>
+  <si>
+    <t>ForgotPassword_TProc_20</t>
+  </si>
+  <si>
+    <t>TCase_20</t>
+  </si>
+  <si>
+    <t>ForgotPassword_TProc_21</t>
+  </si>
+  <si>
+    <t>TCase_21</t>
+  </si>
+  <si>
+    <t>While on the Forgot Password page for Firefox, right-click and select "View image info" on the webpage logo. Read through the list of images and and confirm that they all exist on the website server: http://lamp.eeecs.qub.ac.uk:8080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While on the Forgot Password page, examine all images and check for watermarks foreign to Pizza IT or Firebrand Web Design. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Pizza IT logo for each page shows a watermark "99" with diagonal lines zooming towards the centre of the image. These features are not present in the version of the logo in the Requirements. The number and vertical lines may indicate that the image is a stock image from a website that has not been paid for or lawfully used. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check that the Forgot Password page is optimised for Amazon Kindle Fire 7 inch, iPad 4, iPhone 6, Google Nexus 10 and Samsung Galaxy S4. </t>
+  </si>
+  <si>
+    <t>Forgot Password page does not fit on Samsung Galaxy S4 and too small on iPhone 6 and Amazon Kindle Fire 7".</t>
+  </si>
+  <si>
+    <t>ForgotPassword_4</t>
   </si>
 </sst>
 </file>
@@ -938,7 +1163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1027,6 +1252,10 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1164,13 +1393,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1231,7 +1460,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Test Cases'!$T$28:$T$32</c:f>
+              <c:f>'Test Cases'!$T$26:$T$30</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1254,7 +1483,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Test Cases'!$U$28:$U$32</c:f>
+              <c:f>'Test Cases'!$U$26:$U$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1286,11 +1515,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-274815216"/>
-        <c:axId val="-193792336"/>
+        <c:axId val="161107792"/>
+        <c:axId val="161117040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-274815216"/>
+        <c:axId val="161107792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1300,7 +1529,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-193792336"/>
+        <c:crossAx val="161117040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1308,7 +1537,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-193792336"/>
+        <c:axId val="161117040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1319,7 +1548,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-274815216"/>
+        <c:crossAx val="161107792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1348,7 +1577,7 @@
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>351367</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>169333</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1372,13 +1601,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>21166</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>16933</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>325966</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1399,6 +1628,27 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Reqs"/>
+      <sheetName val="Test Conditions"/>
+      <sheetName val="Test Cases"/>
+      <sheetName val="Test Procedures"/>
+      <sheetName val="Settings"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1725,10 +1975,10 @@
   <sheetPr>
     <tabColor rgb="FF023FAE"/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1911,29 +2161,135 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D14" s="1"/>
+    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Settings!$B$4:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D14</xm:sqref>
+          <xm:sqref>D2:D11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Settings!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>D12:D19</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1946,10 +2302,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:Z163"/>
+  <dimension ref="A1:Z161"/>
   <sheetViews>
-    <sheetView topLeftCell="C6" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2033,16 +2389,16 @@
       <c r="D2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="14" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="13">
         <v>42074</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="12" t="s">
         <v>24</v>
       </c>
       <c r="I2" s="12" t="s">
@@ -2072,19 +2428,19 @@
       <c r="D3" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="14" t="s">
         <v>27</v>
       </c>
       <c r="G3" s="13">
         <v>42074</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="9" t="s">
         <v>90</v>
       </c>
       <c r="J3" s="3"/>
@@ -2111,19 +2467,19 @@
       <c r="D4" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="14" t="s">
         <v>27</v>
       </c>
       <c r="G4" s="13">
         <v>42107</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>90</v>
       </c>
       <c r="J4" s="3"/>
@@ -2148,19 +2504,19 @@
       <c r="D5" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="14" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="13">
         <v>42107</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="9" t="s">
         <v>90</v>
       </c>
       <c r="J5" s="3"/>
@@ -2185,16 +2541,16 @@
       <c r="D6" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="14" t="s">
         <v>27</v>
       </c>
       <c r="G6" s="13">
         <v>42074</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="12" t="s">
         <v>24</v>
       </c>
       <c r="I6" s="14" t="s">
@@ -2224,16 +2580,16 @@
       <c r="D7" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="14" t="s">
         <v>27</v>
       </c>
       <c r="G7" s="13">
         <v>42101</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="12" t="s">
         <v>25</v>
       </c>
       <c r="I7" s="14" t="s">
@@ -2254,7 +2610,7 @@
       <c r="N7" s="33">
         <v>42101</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="3" t="s">
         <v>91</v>
       </c>
       <c r="P7" s="10"/>
@@ -2275,13 +2631,13 @@
       <c r="E8" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="14" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="13">
         <v>42108</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="12" t="s">
         <v>24</v>
       </c>
       <c r="I8" s="14" t="s">
@@ -2311,13 +2667,13 @@
       <c r="E9" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="14" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="13">
         <v>42108</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="12" t="s">
         <v>24</v>
       </c>
       <c r="I9" s="14" t="s">
@@ -2350,31 +2706,31 @@
       <c r="E10" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="14" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="13">
         <v>42108</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="12" t="s">
         <v>24</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="J10" s="10"/>
+      <c r="J10" s="9"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
       <c r="P10" s="10"/>
       <c r="T10" t="s">
         <v>53</v>
       </c>
       <c r="U10" s="32">
-        <f>COUNTIF(H2:H92,"*Passed*")</f>
-        <v>12</v>
+        <f>COUNTIF(H2:H90,"*Passed*")</f>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="71.25" x14ac:dyDescent="0.25">
@@ -2393,31 +2749,31 @@
       <c r="E11" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="14" t="s">
         <v>6</v>
       </c>
       <c r="G11" s="13">
         <v>42108</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="12" t="s">
         <v>24</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="J11" s="10"/>
+      <c r="J11" s="9"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
       <c r="P11" s="10"/>
       <c r="T11" t="s">
         <v>25</v>
       </c>
       <c r="U11" s="32">
-        <f>COUNTIF(H3:H92,"*Failed*")</f>
-        <v>1</v>
+        <f>COUNTIF(H3:H90,"*Failed*")</f>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
@@ -2436,31 +2792,31 @@
       <c r="E12" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="14" t="s">
         <v>27</v>
       </c>
       <c r="G12" s="13">
         <v>42108</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="H12" s="12" t="s">
         <v>24</v>
       </c>
       <c r="I12" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="J12" s="10"/>
+      <c r="J12" s="9"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
       <c r="P12" s="10"/>
       <c r="T12" t="s">
         <v>54</v>
       </c>
       <c r="U12" s="32">
-        <f>COUNTIF(H6:H92,"*Not*")</f>
-        <v>0</v>
+        <f>COUNTIF(H6:H90,"*Not*")</f>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
@@ -2479,24 +2835,24 @@
       <c r="E13" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="14" t="s">
         <v>6</v>
       </c>
       <c r="G13" s="13">
         <v>42108</v>
       </c>
-      <c r="H13" s="27" t="s">
+      <c r="H13" s="12" t="s">
         <v>24</v>
       </c>
       <c r="I13" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="J13" s="10"/>
+      <c r="J13" s="9"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
       <c r="P13" s="10"/>
     </row>
     <row r="14" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
@@ -2515,139 +2871,347 @@
       <c r="E14" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="14" t="s">
         <v>6</v>
       </c>
       <c r="G14" s="13">
         <v>42108</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="H14" s="12" t="s">
         <v>24</v>
       </c>
       <c r="I14" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
       <c r="P14" s="10"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
+    <row r="15" spans="1:26" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="13">
+        <v>42109</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
       <c r="P15" s="10"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
+    <row r="16" spans="1:26" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="13">
+        <v>42109</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
       <c r="P16" s="10"/>
     </row>
-    <row r="17" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
+    <row r="17" spans="1:21" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="13">
+        <v>42109</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M17" s="33">
+        <v>42109</v>
+      </c>
+      <c r="N17" s="33">
+        <v>42109</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>244</v>
+      </c>
       <c r="P17" s="10"/>
     </row>
-    <row r="18" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E18" s="10"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
+    <row r="18" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="13">
+        <v>42109</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
       <c r="P18" s="10"/>
     </row>
-    <row r="19" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
+    <row r="19" spans="1:21" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="13">
+        <v>42109</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M19" s="33">
+        <v>42109</v>
+      </c>
+      <c r="N19" s="9"/>
+      <c r="O19" s="3" t="s">
+        <v>208</v>
+      </c>
       <c r="P19" s="10"/>
     </row>
-    <row r="20" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E20" s="10"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
+    <row r="20" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="13">
+        <v>42109</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
       <c r="P20" s="10"/>
     </row>
-    <row r="21" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E21" s="10"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
+    <row r="21" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="13">
+        <v>42109</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
       <c r="P21" s="10"/>
     </row>
-    <row r="22" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E22" s="10"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
+    <row r="22" spans="1:21" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="13">
+        <v>42109</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M22" s="33">
+        <v>42109</v>
+      </c>
+      <c r="N22" s="9"/>
+      <c r="O22" s="3" t="s">
+        <v>242</v>
+      </c>
       <c r="P22" s="10"/>
     </row>
-    <row r="23" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
       <c r="G23" s="10"/>
@@ -2661,7 +3225,7 @@
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
     </row>
-    <row r="24" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
       <c r="G24" s="10"/>
@@ -2675,7 +3239,7 @@
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
     </row>
-    <row r="25" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E25" s="10"/>
       <c r="F25" s="11"/>
       <c r="G25" s="10"/>
@@ -2688,8 +3252,11 @@
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
       <c r="P25" s="10"/>
-    </row>
-    <row r="26" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="T25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E26" s="10"/>
       <c r="F26" s="11"/>
       <c r="G26" s="10"/>
@@ -2702,8 +3269,15 @@
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
-    </row>
-    <row r="27" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="T26" t="s">
+        <v>34</v>
+      </c>
+      <c r="U26" s="32">
+        <f>COUNTIF(L2:L50,"*Minor*")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E27" s="10"/>
       <c r="F27" s="11"/>
       <c r="G27" s="10"/>
@@ -2717,10 +3291,14 @@
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
       <c r="T27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="5:21" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="U27" s="32">
+        <f>COUNTIF(L2:L9,"*Moderate*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E28" s="10"/>
       <c r="F28" s="11"/>
       <c r="G28" s="10"/>
@@ -2734,14 +3312,14 @@
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
       <c r="T28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U28" s="32">
-        <f>COUNTIF(L2:L52,"*Minor*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="5:21" x14ac:dyDescent="0.25">
+        <f>COUNTIF(L2:L9,"*Major*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
       <c r="G29" s="10"/>
@@ -2755,14 +3333,14 @@
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
       <c r="T29" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="U29" s="32">
-        <f>COUNTIF(L2:L9,"*Moderate*")</f>
+        <f>COUNTIF(L2:L9,"*Critical*")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E30" s="10"/>
       <c r="F30" s="11"/>
       <c r="G30" s="10"/>
@@ -2776,14 +3354,14 @@
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
       <c r="T30" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U30" s="32">
-        <f>COUNTIF(L2:L9,"*Major*")</f>
+        <f>COUNTIF(L2:L9,"*Cometic*")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E31" s="10"/>
       <c r="F31" s="11"/>
       <c r="G31" s="10"/>
@@ -2796,15 +3374,8 @@
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
       <c r="P31" s="10"/>
-      <c r="T31" t="s">
-        <v>36</v>
-      </c>
-      <c r="U31" s="32">
-        <f>COUNTIF(L2:L9,"*Critical*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="5:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E32" s="10"/>
       <c r="F32" s="11"/>
       <c r="G32" s="10"/>
@@ -2817,13 +3388,6 @@
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
-      <c r="T32" t="s">
-        <v>38</v>
-      </c>
-      <c r="U32" s="32">
-        <f>COUNTIF(L2:L9,"*Cometic*")</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="33" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E33" s="10"/>
@@ -4579,7 +5143,7 @@
       <c r="E158" s="10"/>
       <c r="F158" s="11"/>
       <c r="G158" s="10"/>
-      <c r="H158" s="27"/>
+      <c r="H158" s="10"/>
       <c r="I158" s="10"/>
       <c r="J158" s="10"/>
       <c r="K158" s="10"/>
@@ -4593,7 +5157,7 @@
       <c r="E159" s="10"/>
       <c r="F159" s="11"/>
       <c r="G159" s="10"/>
-      <c r="H159" s="27"/>
+      <c r="H159" s="10"/>
       <c r="I159" s="10"/>
       <c r="J159" s="10"/>
       <c r="K159" s="10"/>
@@ -4605,7 +5169,7 @@
     </row>
     <row r="160" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E160" s="10"/>
-      <c r="F160" s="11"/>
+      <c r="F160" s="10"/>
       <c r="G160" s="10"/>
       <c r="H160" s="10"/>
       <c r="I160" s="10"/>
@@ -4619,7 +5183,7 @@
     </row>
     <row r="161" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E161" s="10"/>
-      <c r="F161" s="11"/>
+      <c r="F161" s="10"/>
       <c r="G161" s="10"/>
       <c r="H161" s="10"/>
       <c r="I161" s="10"/>
@@ -4631,38 +5195,10 @@
       <c r="O161" s="10"/>
       <c r="P161" s="10"/>
     </row>
-    <row r="162" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E162" s="10"/>
-      <c r="F162" s="10"/>
-      <c r="G162" s="10"/>
-      <c r="H162" s="10"/>
-      <c r="I162" s="10"/>
-      <c r="J162" s="10"/>
-      <c r="K162" s="10"/>
-      <c r="L162" s="10"/>
-      <c r="M162" s="10"/>
-      <c r="N162" s="10"/>
-      <c r="O162" s="10"/>
-      <c r="P162" s="10"/>
-    </row>
-    <row r="163" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E163" s="10"/>
-      <c r="F163" s="10"/>
-      <c r="G163" s="10"/>
-      <c r="H163" s="10"/>
-      <c r="I163" s="10"/>
-      <c r="J163" s="10"/>
-      <c r="K163" s="10"/>
-      <c r="L163" s="10"/>
-      <c r="M163" s="10"/>
-      <c r="N163" s="10"/>
-      <c r="O163" s="10"/>
-      <c r="P163" s="10"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="H46:H161">
+  <conditionalFormatting sqref="H44:H159">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Passed ">
-      <formula>NOT(ISERROR(SEARCH("Passed ",H46)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed ",H44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4671,18 +5207,12 @@
   <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Settings!$A$4:$A$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>H2:H45</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Settings!$B$4:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F161</xm:sqref>
+          <xm:sqref>F2:F14 F23:F159</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -4694,7 +5224,37 @@
           <x14:formula1>
             <xm:f>Settings!$D$4:$D$6</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K13</xm:sqref>
+          <xm:sqref>K2:K13 K17</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Settings!$A$4:$A$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:H19 H23:H43</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Settings!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>F15:F22</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Settings!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>H20:H22</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Settings!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>K19 K22</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Settings!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>L19 L22 L17</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4707,10 +5267,10 @@
   <sheetPr>
     <tabColor rgb="FF99FF99"/>
   </sheetPr>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A17" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4749,20 +5309,20 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>77</v>
       </c>
       <c r="F2" s="1"/>
@@ -4775,20 +5335,20 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>77</v>
       </c>
       <c r="F3" s="2"/>
@@ -4800,20 +5360,20 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>77</v>
       </c>
       <c r="F4" s="2"/>
@@ -4825,20 +5385,20 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>77</v>
       </c>
       <c r="F5" s="2"/>
@@ -4850,20 +5410,20 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -4873,20 +5433,20 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -4896,20 +5456,20 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="3"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -4919,20 +5479,20 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="3"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -4942,20 +5502,20 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -4965,20 +5525,20 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -4988,20 +5548,20 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -5011,20 +5571,20 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -5034,20 +5594,20 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -5057,12 +5617,20 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+    <row r="15" spans="1:13" ht="57" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E15" s="3"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -5072,12 +5640,20 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+    <row r="16" spans="1:13" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E16" s="3"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -5087,12 +5663,20 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+    <row r="17" spans="1:13" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E17" s="3"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -5102,12 +5686,20 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+    <row r="18" spans="1:13" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E18" s="3"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -5117,12 +5709,20 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+    <row r="19" spans="1:13" ht="57" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E19" s="3"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -5132,12 +5732,20 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+    <row r="20" spans="1:13" ht="156.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E20" s="3"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -5147,12 +5755,20 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+    <row r="21" spans="1:13" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E21" s="3"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -5161,6 +5777,21 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" ht="57" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E22" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5254,21 +5885,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C0A86D0A1DF85A4CBF24319CD50F658E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18023c554c1e7c0fe5f8bda126dbbbe1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -5382,15 +6004,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -5399,7 +6022,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5413,4 +6036,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testing Spreadsheet v1.0 ForgotPasswordPage, Jonnie Leathem.xlsx
+++ b/Testing Spreadsheet v1.0 ForgotPasswordPage, Jonnie Leathem.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <workbookProtection workbookPassword="A6C2" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="16560" windowHeight="6345" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="16560" windowHeight="6345" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="5" r:id="rId1"/>
@@ -1393,13 +1393,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1500,7 +1500,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1515,11 +1515,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="161107792"/>
-        <c:axId val="161117040"/>
+        <c:axId val="1433862096"/>
+        <c:axId val="1433853936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="161107792"/>
+        <c:axId val="1433862096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1529,7 +1529,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161117040"/>
+        <c:crossAx val="1433853936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1537,7 +1537,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161117040"/>
+        <c:axId val="1433853936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1548,7 +1548,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161107792"/>
+        <c:crossAx val="1433862096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1977,7 +1977,7 @@
   </sheetPr>
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -2304,8 +2304,8 @@
   </sheetPr>
   <dimension ref="A1:Z161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView topLeftCell="K22" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2730,7 +2730,7 @@
       </c>
       <c r="U10" s="32">
         <f>COUNTIF(H2:H90,"*Passed*")</f>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="71.25" x14ac:dyDescent="0.25">
@@ -2816,7 +2816,7 @@
       </c>
       <c r="U12" s="32">
         <f>COUNTIF(H6:H90,"*Not*")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
@@ -2914,7 +2914,7 @@
         <v>42109</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>90</v>
@@ -2950,7 +2950,7 @@
         <v>42109</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>90</v>
@@ -3079,7 +3079,7 @@
         <v>233</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>38</v>
@@ -3087,7 +3087,9 @@
       <c r="M19" s="33">
         <v>42109</v>
       </c>
-      <c r="N19" s="9"/>
+      <c r="N19" s="33">
+        <v>42110</v>
+      </c>
       <c r="O19" s="3" t="s">
         <v>208</v>
       </c>
@@ -3197,7 +3199,7 @@
         <v>245</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>38</v>
@@ -3205,7 +3207,9 @@
       <c r="M22" s="33">
         <v>42109</v>
       </c>
-      <c r="N22" s="9"/>
+      <c r="N22" s="33">
+        <v>42110</v>
+      </c>
       <c r="O22" s="3" t="s">
         <v>242</v>
       </c>
@@ -3294,7 +3298,7 @@
         <v>57</v>
       </c>
       <c r="U27" s="32">
-        <f>COUNTIF(L2:L9,"*Moderate*")</f>
+        <f>COUNTIF(L2:L50,"*Moderate*")</f>
         <v>0</v>
       </c>
     </row>
@@ -3315,7 +3319,7 @@
         <v>35</v>
       </c>
       <c r="U28" s="32">
-        <f>COUNTIF(L2:L9,"*Major*")</f>
+        <f>COUNTIF(L2:L50,"*Major*")</f>
         <v>0</v>
       </c>
     </row>
@@ -3336,7 +3340,7 @@
         <v>36</v>
       </c>
       <c r="U29" s="32">
-        <f>COUNTIF(L2:L9,"*Critical*")</f>
+        <f>COUNTIF(L2:L50,"*Critical*")</f>
         <v>0</v>
       </c>
     </row>
@@ -3357,8 +3361,8 @@
         <v>38</v>
       </c>
       <c r="U30" s="32">
-        <f>COUNTIF(L2:L9,"*Cometic*")</f>
-        <v>0</v>
+        <f>COUNTIF(L2:L50,"*Cosmetic*")</f>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
@@ -5207,7 +5211,7 @@
   <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Settings!$B$4:$B$6</xm:f>
@@ -5224,7 +5228,7 @@
           <x14:formula1>
             <xm:f>Settings!$D$4:$D$6</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K13 K17</xm:sqref>
+          <xm:sqref>K2:K13 K17 K19 K22</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -5248,12 +5252,6 @@
           <x14:formula1>
             <xm:f>[1]Settings!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>K19 K22</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]Settings!#REF!</xm:f>
-          </x14:formula1>
           <xm:sqref>L19 L22 L17</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
@@ -5269,7 +5267,7 @@
   </sheetPr>
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -5891,6 +5889,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C0A86D0A1DF85A4CBF24319CD50F658E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18023c554c1e7c0fe5f8bda126dbbbe1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -6004,15 +6011,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
   <ds:schemaRefs>
@@ -6023,6 +6021,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6036,12 +6042,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>